--- a/data/rct_LVESVI.xlsx
+++ b/data/rct_LVESVI.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
-    <t>Study</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>MVS + ablation</t>
+  </si>
+  <si>
+    <t>study</t>
   </si>
 </sst>
 </file>
@@ -421,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,54 +432,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>251</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>126</v>
@@ -504,19 +502,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>301</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>151</v>
@@ -539,19 +537,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>401</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>203</v>
@@ -574,19 +572,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>127</v>

--- a/data/rct_LVESVI.xlsx
+++ b/data/rct_LVESVI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>n</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>study</t>
+  </si>
+  <si>
+    <t>CTSN Severe MR</t>
+  </si>
+  <si>
+    <t>CTSN Moderate MR</t>
+  </si>
+  <si>
+    <t>CTSN TR Trial</t>
+  </si>
+  <si>
+    <t>CTSN AF Trial</t>
+  </si>
+  <si>
+    <t>author_year</t>
   </si>
 </sst>
 </file>
@@ -419,177 +434,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>251</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>126</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>125</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>61.1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>26.2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>65.7</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>27.3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
         <v>301</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>151</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>150</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>54.8</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>24.9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>59.6</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
         <v>401</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>203</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>198</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>60.7</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>27.4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>54.4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>25.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
         <v>260</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>127</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>133</v>
       </c>
     </row>
